--- a/utilities/statistics-EXCELs/Stats Pjs.xlsx
+++ b/utilities/statistics-EXCELs/Stats Pjs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianca\Desktop\aoweb-backend\statistics-EXCELs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianca\Desktop\Hero's Path\Backend\utilities\statistics-EXCELs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>fuerza</t>
   </si>
@@ -53,12 +53,6 @@
     <t>critico / start chance</t>
   </si>
   <si>
-    <t>min, max = dmg *  4 / 7</t>
-  </si>
-  <si>
-    <t>min, max = dmg *  4 / 6</t>
-  </si>
-  <si>
     <t>min, max = dmg *  3 / 5</t>
   </si>
   <si>
@@ -81,13 +75,25 @@
   </si>
   <si>
     <t>defensa * 3</t>
+  </si>
+  <si>
+    <t>min, max = dmg *  2 / 3</t>
+  </si>
+  <si>
+    <t>evasion * 3</t>
+  </si>
+  <si>
+    <t>min, max = dmg *  2 / 4</t>
+  </si>
+  <si>
+    <t>evasion * 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +101,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +126,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -140,10 +158,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,8 +176,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,19 +497,19 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -494,19 +517,19 @@
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -514,19 +537,19 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
